--- a/bom/TinyAFireController.xlsx
+++ b/bom/TinyAFireController.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
@@ -88,13 +88,19 @@
     <t xml:space="preserve">Connector_PinHeader_2.54mm:PinHeader_1x09_P2.54mm_Horizontal</t>
   </si>
   <si>
-    <t xml:space="preserve">R1,R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100k_0805</t>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k_0805</t>
   </si>
   <si>
     <t xml:space="preserve">Resistor_SMD:R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220_0805</t>
   </si>
   <si>
     <t xml:space="preserve">U1</t>
@@ -118,6 +124,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -140,6 +147,7 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,16 +192,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,147 +226,161 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="74.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="47.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="74.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="47.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.32"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
